--- a/phase_1/phase_1 groupe 7/BUDGET.xlsx
+++ b/phase_1/phase_1 groupe 7/BUDGET.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nodji\OneDrive\Bureau\Projet-Applicatif\phase_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nodji\OneDrive\Bureau\Projet-Applicatif\phase_1\phase_1 groupe 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Relevé de facturation" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <webPublishing codePage="1252"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>Rue</t>
   </si>
@@ -203,9 +204,6 @@
   </si>
   <si>
     <t>13 034,50 XAF</t>
-  </si>
-  <si>
-    <t>4 519,50 XAF</t>
   </si>
   <si>
     <t>655,00 XAF</t>
@@ -240,8 +238,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00&quot; € &quot;;#,##0.00&quot; € &quot;;&quot;-&quot;#&quot; € &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00&quot; € &quot;;#,##0.00&quot; € &quot;;&quot;-&quot;#&quot; € &quot;;&quot; &quot;@&quot; &quot;"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -594,7 +592,7 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="0" applyFont="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="0" applyFont="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -631,7 +629,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -641,7 +639,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -660,19 +658,13 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="3" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -680,6 +672,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="20 % - Accent1" xfId="1" builtinId="30"/>
@@ -715,7 +715,6 @@
         <name val="Gill Sans MT"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -725,6 +724,7 @@
         <name val="Gill Sans MT"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -799,11 +799,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Tableau1" ref="B7:F20" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="5">
   <autoFilter ref="B7:F19"/>
   <tableColumns count="5">
-    <tableColumn id="2" name="COMPOSANTS" dataDxfId="3"/>
-    <tableColumn id="3" name="NOMBRES" dataDxfId="2"/>
-    <tableColumn id="4" name="PRIX (TTC)" dataDxfId="1"/>
-    <tableColumn id="5" name="PRIX TOTAL" dataDxfId="0"/>
-    <tableColumn id="6" name="LIENS" dataDxfId="4"/>
+    <tableColumn id="2" name="COMPOSANTS" dataDxfId="4"/>
+    <tableColumn id="3" name="NOMBRES" dataDxfId="3"/>
+    <tableColumn id="4" name="PRIX (TTC)" dataDxfId="2"/>
+    <tableColumn id="5" name="PRIX TOTAL" dataDxfId="1"/>
+    <tableColumn id="6" name="LIENS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1144,7 +1144,7 @@
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -1160,7 +1160,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2"/>
@@ -1212,7 +1212,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" ht="29.4" x14ac:dyDescent="0.7">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1"/>
@@ -1295,7 +1295,7 @@
       <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="24" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="3"/>
@@ -1398,7 +1398,7 @@
       <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1441,15 +1441,16 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="25">
+        <v>4519.5</v>
+      </c>
+      <c r="E19">
+        <f>PRODUCT(C19,D19)</f>
+        <v>13558.5</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1476,10 +1477,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>46</v>
@@ -1493,61 +1494,61 @@
         <v>1</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B26" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="12">
         <v>5</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="F26" s="16"/>
     </row>
     <row r="28" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="29" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="19"/>
+      <c r="C29" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1560,17 +1561,32 @@
     <hyperlink ref="M16" r:id="rId4" display="https://www.gotronic.fr/art-moteur-miniature-mot1-786.htm"/>
     <hyperlink ref="M21" r:id="rId5" display="https://www.gotronic.fr/art-tournevis-plat-6-0-x-100-mm-18183.htm"/>
     <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="F19" r:id="rId8"/>
+    <hyperlink ref="F16" r:id="rId9"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup scale="66" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId7"/>
+  <pageSetup scale="66" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId10"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;K000000
 </oddHeader>
     <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>